--- a/data/合并数据.xlsx
+++ b/data/合并数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wangyw15\Desktop\2023E\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{957E781A-C4CF-4AEA-B260-97122675D531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30D808BD-EA21-41D7-8318-CDFDA6E5530E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900"/>
   </bookViews>
@@ -20,30 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Area</t>
   </si>
   <si>
-    <t xml:space="preserve"> All industry total(GDP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Construction(GDP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Transportation and warehousing(GDP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Broadcasting (except Internet) and telecommunications(GDP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finance and insurance(GDP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Health care and social assistance(GDP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Arts entertainment and recreation(GDP)</t>
+    <t xml:space="preserve"> All industry total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All tertiary industry percentage</t>
   </si>
   <si>
     <t xml:space="preserve"> Population</t>
@@ -1046,13 +1031,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1086,469 +1071,319 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
       </c>
       <c r="B2">
         <v>641332.19999999995</v>
       </c>
       <c r="C2">
-        <v>23709.599999999999</v>
+        <v>0.26476309781420598</v>
       </c>
       <c r="D2">
-        <v>9975.2000000000007</v>
+        <v>7029917</v>
       </c>
       <c r="E2">
-        <v>6973.1</v>
+        <v>901.2</v>
       </c>
       <c r="F2">
-        <v>64517.5</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>58893.2</v>
+        <v>11</v>
       </c>
       <c r="H2">
-        <v>5732.5</v>
+        <v>408.6</v>
       </c>
       <c r="I2">
-        <v>7029917</v>
+        <v>1211</v>
       </c>
       <c r="J2">
-        <v>901.2</v>
+        <v>38.1</v>
       </c>
       <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="L2">
-        <v>11</v>
-      </c>
-      <c r="M2">
-        <v>408.6</v>
-      </c>
-      <c r="N2">
-        <v>1211</v>
-      </c>
-      <c r="O2">
-        <v>38.1</v>
-      </c>
-      <c r="P2">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1901296.5</v>
       </c>
       <c r="C3">
-        <v>53563.5</v>
+        <v>0.38686065008797899</v>
       </c>
       <c r="D3">
-        <v>32208.3</v>
+        <v>20201249</v>
       </c>
       <c r="E3">
-        <v>70102.2</v>
+        <v>428.7</v>
       </c>
       <c r="F3">
-        <v>414195.6</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>138728.4</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>26738.799999999999</v>
+        <v>412.8</v>
       </c>
       <c r="I3">
-        <v>20201249</v>
+        <v>1062</v>
       </c>
       <c r="J3">
-        <v>428.7</v>
+        <v>38.4</v>
       </c>
       <c r="K3">
-        <v>4</v>
-      </c>
-      <c r="L3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>13</v>
-      </c>
-      <c r="M3">
-        <v>412.8</v>
-      </c>
-      <c r="N3">
-        <v>1062</v>
-      </c>
-      <c r="O3">
-        <v>38.4</v>
-      </c>
-      <c r="P3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
       </c>
       <c r="B4">
         <v>682945.9</v>
       </c>
       <c r="C4">
-        <v>22338.400000000001</v>
+        <v>0.242539709221477</v>
       </c>
       <c r="D4">
-        <v>22997.9</v>
+        <v>9288994</v>
       </c>
       <c r="E4">
-        <v>13910.2</v>
+        <v>1263</v>
       </c>
       <c r="F4">
-        <v>45291.1</v>
+        <v>5.8</v>
       </c>
       <c r="G4">
-        <v>55656.800000000003</v>
+        <v>10.5</v>
       </c>
       <c r="H4">
-        <v>5447.1</v>
+        <v>383.4</v>
       </c>
       <c r="I4">
-        <v>9288994</v>
+        <v>1196</v>
       </c>
       <c r="J4">
-        <v>1263</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="K4">
-        <v>5.8</v>
-      </c>
-      <c r="L4">
-        <v>10.5</v>
-      </c>
-      <c r="M4">
-        <v>383.4</v>
-      </c>
-      <c r="N4">
-        <v>1196</v>
-      </c>
-      <c r="O4">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="P4">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>3373240.7</v>
       </c>
       <c r="C5">
-        <v>124564.5</v>
+        <v>0.22291842381719101</v>
       </c>
       <c r="D5">
-        <v>93492.6</v>
+        <v>39538223</v>
       </c>
       <c r="E5">
-        <v>78554.5</v>
+        <v>253.7</v>
       </c>
       <c r="F5">
-        <v>192187.3</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>222235.4</v>
+        <v>11.5</v>
       </c>
       <c r="H5">
-        <v>40923.199999999997</v>
+        <v>394.2</v>
       </c>
       <c r="I5">
-        <v>39538223</v>
+        <v>563</v>
       </c>
       <c r="J5">
-        <v>253.7</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="K5">
-        <v>6</v>
-      </c>
-      <c r="L5">
-        <v>11.5</v>
-      </c>
-      <c r="M5">
-        <v>394.2</v>
-      </c>
-      <c r="N5">
-        <v>563</v>
-      </c>
-      <c r="O5">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="P5">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>844496.5</v>
       </c>
       <c r="C6">
-        <v>31230.9</v>
+        <v>0.29055727288390099</v>
       </c>
       <c r="D6">
-        <v>31628.2</v>
+        <v>13002700</v>
       </c>
       <c r="E6">
-        <v>33061.300000000003</v>
+        <v>290.60000000000002</v>
       </c>
       <c r="F6">
-        <v>57514.5</v>
+        <v>6.3</v>
       </c>
       <c r="G6">
-        <v>84264.5</v>
+        <v>9.5</v>
       </c>
       <c r="H6">
-        <v>7675.2</v>
+        <v>379.6</v>
       </c>
       <c r="I6">
-        <v>13002700</v>
+        <v>1089</v>
       </c>
       <c r="J6">
-        <v>290.60000000000002</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="K6">
-        <v>6.3</v>
-      </c>
-      <c r="L6">
-        <v>9.5</v>
-      </c>
-      <c r="M6">
-        <v>379.6</v>
-      </c>
-      <c r="N6">
-        <v>1089</v>
-      </c>
-      <c r="O6">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="P6">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>677489.5</v>
       </c>
       <c r="C7">
-        <v>27529.599999999999</v>
+        <v>0.18826830526524699</v>
       </c>
       <c r="D7">
-        <v>15632.9</v>
+        <v>7705281</v>
       </c>
       <c r="E7">
-        <v>12035.6</v>
+        <v>115.9</v>
       </c>
       <c r="F7">
-        <v>28036.400000000001</v>
+        <v>6.8</v>
       </c>
       <c r="G7">
-        <v>39787.599999999999</v>
+        <v>6.5</v>
       </c>
       <c r="H7">
-        <v>4527.7</v>
+        <v>402.7</v>
       </c>
       <c r="I7">
-        <v>7705281</v>
+        <v>976</v>
       </c>
       <c r="J7">
-        <v>115.9</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="K7">
-        <v>6.8</v>
-      </c>
-      <c r="L7">
-        <v>6.5</v>
-      </c>
-      <c r="M7">
-        <v>402.7</v>
-      </c>
-      <c r="N7">
-        <v>976</v>
-      </c>
-      <c r="O7">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="P7">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>194486.6</v>
       </c>
       <c r="C8">
-        <v>14698</v>
+        <v>0.28411417547532802</v>
       </c>
       <c r="D8">
-        <v>7340.9</v>
+        <v>3104614</v>
       </c>
       <c r="E8">
-        <v>2788.2</v>
+        <v>28.3</v>
       </c>
       <c r="F8">
-        <v>12773.5</v>
+        <v>7.8</v>
       </c>
       <c r="G8">
-        <v>12309.9</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>5345.9</v>
+        <v>362.8</v>
       </c>
       <c r="I8">
-        <v>3104614</v>
+        <v>241</v>
       </c>
       <c r="J8">
-        <v>28.3</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="K8">
-        <v>7.8</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>362.8</v>
-      </c>
-      <c r="N8">
-        <v>241</v>
-      </c>
-      <c r="O8">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="P8">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>127307.7</v>
       </c>
       <c r="C9">
-        <v>4004</v>
+        <v>0.21863799283154101</v>
       </c>
       <c r="D9">
-        <v>5093</v>
+        <v>2961279</v>
       </c>
       <c r="E9">
-        <v>2005.8</v>
+        <v>63.1</v>
       </c>
       <c r="F9">
-        <v>6656.5</v>
+        <v>6.8</v>
       </c>
       <c r="G9">
-        <v>9562.2999999999993</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>512.70000000000005</v>
+        <v>361.9</v>
       </c>
       <c r="I9">
-        <v>2961279</v>
+        <v>1499</v>
       </c>
       <c r="J9">
-        <v>63.1</v>
+        <v>39.4</v>
       </c>
       <c r="K9">
-        <v>6.8</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9">
-        <v>361.9</v>
-      </c>
-      <c r="N9">
-        <v>1499</v>
-      </c>
-      <c r="O9">
-        <v>39.4</v>
-      </c>
-      <c r="P9">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>109582.8</v>
       </c>
       <c r="C10">
-        <v>4272.6000000000004</v>
+        <v>0.20058166062557201</v>
       </c>
       <c r="D10">
-        <v>2876.2</v>
+        <v>2117522</v>
       </c>
       <c r="E10">
-        <v>1323.8</v>
+        <v>17.5</v>
       </c>
       <c r="F10">
-        <v>4304.7</v>
+        <v>7.3</v>
       </c>
       <c r="G10">
-        <v>8425.2999999999993</v>
+        <v>7</v>
       </c>
       <c r="H10">
-        <v>777.7</v>
+        <v>367.4</v>
       </c>
       <c r="I10">
-        <v>2117522</v>
+        <v>370</v>
       </c>
       <c r="J10">
-        <v>17.5</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="K10">
-        <v>7.3</v>
-      </c>
-      <c r="L10">
-        <v>7</v>
-      </c>
-      <c r="M10">
-        <v>367.4</v>
-      </c>
-      <c r="N10">
-        <v>370</v>
-      </c>
-      <c r="O10">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="P10">
         <v>50</v>
       </c>
     </row>

--- a/data/合并数据.xlsx
+++ b/data/合并数据.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wangyw15\Desktop\2023E\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30D808BD-EA21-41D7-8318-CDFDA6E5530E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82955AC-3598-44AD-ACAE-8E36E4869341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900"/>
+    <workbookView xWindow="8940" yWindow="1960" windowWidth="21300" windowHeight="12430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combined" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Area</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t xml:space="preserve"> All tertiary industry percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Population</t>
   </si>
   <si>
     <t xml:space="preserve"> Population Density</t>
@@ -85,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1030,14 +1027,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1068,13 +1071,10 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
       </c>
       <c r="B2">
         <v>641332.19999999995</v>
@@ -1083,33 +1083,30 @@
         <v>0.26476309781420598</v>
       </c>
       <c r="D2">
-        <v>7029917</v>
+        <v>901.2</v>
       </c>
       <c r="E2">
-        <v>901.2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G2">
+        <v>408.6</v>
+      </c>
+      <c r="H2">
+        <v>1211</v>
+      </c>
+      <c r="I2">
+        <v>38.1</v>
+      </c>
+      <c r="J2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>11</v>
-      </c>
-      <c r="H2">
-        <v>408.6</v>
-      </c>
-      <c r="I2">
-        <v>1211</v>
-      </c>
-      <c r="J2">
-        <v>38.1</v>
-      </c>
-      <c r="K2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
       </c>
       <c r="B3">
         <v>1901296.5</v>
@@ -1118,33 +1115,30 @@
         <v>0.38686065008797899</v>
       </c>
       <c r="D3">
-        <v>20201249</v>
+        <v>428.7</v>
       </c>
       <c r="E3">
-        <v>428.7</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>412.8</v>
       </c>
       <c r="H3">
-        <v>412.8</v>
+        <v>1062</v>
       </c>
       <c r="I3">
-        <v>1062</v>
+        <v>38.4</v>
       </c>
       <c r="J3">
-        <v>38.4</v>
-      </c>
-      <c r="K3">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>682945.9</v>
@@ -1153,33 +1147,30 @@
         <v>0.242539709221477</v>
       </c>
       <c r="D4">
-        <v>9288994</v>
+        <v>1263</v>
       </c>
       <c r="E4">
-        <v>1263</v>
+        <v>5.8</v>
       </c>
       <c r="F4">
-        <v>5.8</v>
+        <v>10.5</v>
       </c>
       <c r="G4">
-        <v>10.5</v>
+        <v>383.4</v>
       </c>
       <c r="H4">
-        <v>383.4</v>
+        <v>1196</v>
       </c>
       <c r="I4">
-        <v>1196</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="J4">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="K4">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>3373240.7</v>
@@ -1188,33 +1179,30 @@
         <v>0.22291842381719101</v>
       </c>
       <c r="D5">
-        <v>39538223</v>
+        <v>253.7</v>
       </c>
       <c r="E5">
-        <v>253.7</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>11.5</v>
+        <v>394.2</v>
       </c>
       <c r="H5">
-        <v>394.2</v>
+        <v>563</v>
       </c>
       <c r="I5">
-        <v>563</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="J5">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="K5">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>844496.5</v>
@@ -1223,33 +1211,30 @@
         <v>0.29055727288390099</v>
       </c>
       <c r="D6">
-        <v>13002700</v>
+        <v>290.60000000000002</v>
       </c>
       <c r="E6">
-        <v>290.60000000000002</v>
+        <v>6.3</v>
       </c>
       <c r="F6">
-        <v>6.3</v>
+        <v>9.5</v>
       </c>
       <c r="G6">
-        <v>9.5</v>
+        <v>379.6</v>
       </c>
       <c r="H6">
-        <v>379.6</v>
+        <v>1089</v>
       </c>
       <c r="I6">
-        <v>1089</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="J6">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="K6">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>677489.5</v>
@@ -1258,33 +1243,30 @@
         <v>0.18826830526524699</v>
       </c>
       <c r="D7">
-        <v>7705281</v>
+        <v>115.9</v>
       </c>
       <c r="E7">
-        <v>115.9</v>
+        <v>6.8</v>
       </c>
       <c r="F7">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="G7">
-        <v>6.5</v>
+        <v>402.7</v>
       </c>
       <c r="H7">
-        <v>402.7</v>
+        <v>976</v>
       </c>
       <c r="I7">
-        <v>976</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="J7">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="K7">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>194486.6</v>
@@ -1293,33 +1275,30 @@
         <v>0.28411417547532802</v>
       </c>
       <c r="D8">
-        <v>3104614</v>
+        <v>28.3</v>
       </c>
       <c r="E8">
-        <v>28.3</v>
+        <v>7.8</v>
       </c>
       <c r="F8">
-        <v>7.8</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>362.8</v>
       </c>
       <c r="H8">
-        <v>362.8</v>
+        <v>241</v>
       </c>
       <c r="I8">
-        <v>241</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="J8">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="K8">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>127307.7</v>
@@ -1328,33 +1307,30 @@
         <v>0.21863799283154101</v>
       </c>
       <c r="D9">
-        <v>2961279</v>
+        <v>63.1</v>
       </c>
       <c r="E9">
-        <v>63.1</v>
+        <v>6.8</v>
       </c>
       <c r="F9">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>361.9</v>
       </c>
       <c r="H9">
-        <v>361.9</v>
+        <v>1499</v>
       </c>
       <c r="I9">
-        <v>1499</v>
+        <v>39.4</v>
       </c>
       <c r="J9">
-        <v>39.4</v>
-      </c>
-      <c r="K9">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>109582.8</v>
@@ -1363,27 +1339,24 @@
         <v>0.20058166062557201</v>
       </c>
       <c r="D10">
-        <v>2117522</v>
+        <v>17.5</v>
       </c>
       <c r="E10">
-        <v>17.5</v>
+        <v>7.3</v>
       </c>
       <c r="F10">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>367.4</v>
       </c>
       <c r="H10">
-        <v>367.4</v>
+        <v>370</v>
       </c>
       <c r="I10">
-        <v>370</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="J10">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="K10">
         <v>50</v>
       </c>
     </row>

--- a/data/合并数据.xlsx
+++ b/data/合并数据.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wangyw15\Desktop\2023E\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82955AC-3598-44AD-ACAE-8E36E4869341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEDC4D64-B12F-4629-9BDC-FDEBC34ADE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="1960" windowWidth="21300" windowHeight="12430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2230" yWindow="1250" windowWidth="21300" windowHeight="12430"/>
   </bookViews>
   <sheets>
     <sheet name="combined" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Area</t>
   </si>
@@ -76,13 +76,22 @@
     <t>Mississippi</t>
   </si>
   <si>
-    <t>New Mexico</t>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Alaska</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1027,18 +1036,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1185,7 +1188,7 @@
         <v>6</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="G5">
         <v>394.2</v>
@@ -1333,31 +1336,127 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>109582.8</v>
+        <v>358572</v>
       </c>
       <c r="C10">
-        <v>0.20058166062557201</v>
+        <v>0.27686824403466997</v>
       </c>
       <c r="D10">
-        <v>17.5</v>
+        <v>89.5</v>
       </c>
       <c r="E10">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="G10">
-        <v>367.4</v>
+        <v>366.8</v>
       </c>
       <c r="H10">
-        <v>370</v>
+        <v>1071</v>
       </c>
       <c r="I10">
-        <v>38.299999999999997</v>
+        <v>38.9</v>
       </c>
       <c r="J10">
-        <v>50</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>41510.199999999997</v>
+      </c>
+      <c r="C11">
+        <v>0.24718502922173299</v>
+      </c>
+      <c r="D11">
+        <v>5.9</v>
+      </c>
+      <c r="E11">
+        <v>8.6</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>148.5</v>
+      </c>
+      <c r="H11">
+        <v>328</v>
+      </c>
+      <c r="I11">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="J11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>58699.8</v>
+      </c>
+      <c r="C12">
+        <v>0.283108289977137</v>
+      </c>
+      <c r="D12">
+        <v>7.4</v>
+      </c>
+      <c r="E12">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F12">
+        <v>3.5</v>
+      </c>
+      <c r="G12">
+        <v>128.9</v>
+      </c>
+      <c r="H12">
+        <v>390</v>
+      </c>
+      <c r="I12">
+        <v>38.1</v>
+      </c>
+      <c r="J12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>57349.4</v>
+      </c>
+      <c r="C13">
+        <v>0.31364059606552103</v>
+      </c>
+      <c r="D13">
+        <v>1.3</v>
+      </c>
+      <c r="E13">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>165.6</v>
+      </c>
+      <c r="H13">
+        <v>572</v>
+      </c>
+      <c r="I13">
+        <v>41.7</v>
+      </c>
+      <c r="J13">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
